--- a/biology/Botanique/Dipodascaceae/Dipodascaceae.xlsx
+++ b/biology/Botanique/Dipodascaceae/Dipodascaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Dipodascaceae sont une famille de levure de l'ordre des Saccharomycetales. Selon l’esquisse des Ascomycota de 2007, la famille comprend quatre genres ; cependant, le placement de Sporopachydermia et de Yarrowia est incertain[1]. Les espèces de la famille ont une large distribution et se retrouvent dans les tissus végétaux en décomposition ou sont des organismes de dégradation dans le secteur agroalimentaire[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Dipodascaceae sont une famille de levure de l'ordre des Saccharomycetales. Selon l’esquisse des Ascomycota de 2007, la famille comprend quatre genres ; cependant, le placement de Sporopachydermia et de Yarrowia est incertain. Les espèces de la famille ont une large distribution et se retrouvent dans les tissus végétaux en décomposition ou sont des organismes de dégradation dans le secteur agroalimentaire.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dipodascus
 Galactomyces
